--- a/Result.xlsx
+++ b/Result.xlsx
@@ -218,9 +218,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -597,6 +594,9 @@
   </si>
   <si>
     <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
   </si>
   <si>
     <t>Togo</t>
@@ -2228,19 +2228,19 @@
         <v>60</v>
       </c>
       <c r="B51" s="5">
-        <v>14874</v>
+        <v>283561</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D51" s="5">
-        <v>1384286</v>
+        <v>17980083</v>
       </c>
       <c r="E51" s="6">
-        <v>-0.0648353846</v>
+        <v>0.0011065</v>
       </c>
       <c r="F51" s="7">
-        <v>87.4008336695</v>
+        <v>63.4784049993</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,19 +2248,19 @@
         <v>61</v>
       </c>
       <c r="B52" s="5">
-        <v>283561</v>
+        <v>1001450</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D52" s="5">
-        <v>17980083</v>
+        <v>114535772</v>
       </c>
       <c r="E52" s="6">
-        <v>0.0011065</v>
+        <v>-0.1066258164</v>
       </c>
       <c r="F52" s="7">
-        <v>63.4784049993</v>
+        <v>103.3501422937</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,19 +2268,19 @@
         <v>62</v>
       </c>
       <c r="B53" s="5">
-        <v>1001450</v>
+        <v>21041</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5">
-        <v>114535772</v>
+        <v>6309624</v>
       </c>
       <c r="E53" s="6">
-        <v>-0.1066258164</v>
+        <v>-0.001527619</v>
       </c>
       <c r="F53" s="7">
-        <v>103.3501422937</v>
+        <v>299.4154270234</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,19 +2288,19 @@
         <v>63</v>
       </c>
       <c r="B54" s="5">
-        <v>21041</v>
+        <v>28051</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D54" s="5">
-        <v>6309624</v>
+        <v>1847549</v>
       </c>
       <c r="E54" s="6">
-        <v>-0.001527619</v>
+        <v>-0.0867935294</v>
       </c>
       <c r="F54" s="7">
-        <v>299.4154270234</v>
+        <v>60.6039000392</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,19 +2308,19 @@
         <v>64</v>
       </c>
       <c r="B55" s="5">
-        <v>28051</v>
+        <v>117600</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="5">
-        <v>1847549</v>
+        <v>3470390</v>
       </c>
       <c r="E55" s="6">
-        <v>-0.0867935294</v>
+        <v>0.0620567568</v>
       </c>
       <c r="F55" s="7">
-        <v>60.6039000392</v>
+        <v>31.462585034</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,19 +2328,19 @@
         <v>65</v>
       </c>
       <c r="B56" s="5">
-        <v>117600</v>
+        <v>45228</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5">
-        <v>3470390</v>
+        <v>1367196</v>
       </c>
       <c r="E56" s="6">
-        <v>0.0620567568</v>
+        <v>-0.0516892308</v>
       </c>
       <c r="F56" s="7">
-        <v>31.462585034</v>
+        <v>28.7432563898</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,19 +2348,19 @@
         <v>66</v>
       </c>
       <c r="B57" s="5">
-        <v>45228</v>
+        <v>17364</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" s="5">
-        <v>1367196</v>
+        <v>1230506</v>
       </c>
       <c r="E57" s="6">
-        <v>-0.0516892308</v>
+        <v>-0.0254216667</v>
       </c>
       <c r="F57" s="7">
-        <v>28.7432563898</v>
+        <v>69.1085003455</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2368,19 +2368,19 @@
         <v>67</v>
       </c>
       <c r="B58" s="5">
-        <v>17364</v>
+        <v>1104300</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="5">
-        <v>1230506</v>
+        <v>128691692</v>
       </c>
       <c r="E58" s="6">
-        <v>-0.0254216667</v>
+        <v>-0.0428824311</v>
       </c>
       <c r="F58" s="7">
-        <v>69.1085003455</v>
+        <v>111.7449968306</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,19 +2388,19 @@
         <v>68</v>
       </c>
       <c r="B59" s="5">
-        <v>1104300</v>
+        <v>18274</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D59" s="5">
-        <v>128691692</v>
+        <v>924145</v>
       </c>
       <c r="E59" s="6">
-        <v>-0.0428824311</v>
+        <v>-0.0268277778</v>
       </c>
       <c r="F59" s="7">
-        <v>111.7449968306</v>
+        <v>49.2503009741</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,19 +2408,19 @@
         <v>69</v>
       </c>
       <c r="B60" s="5">
-        <v>18274</v>
+        <v>338145</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="5">
-        <v>924145</v>
+        <v>5601185</v>
       </c>
       <c r="E60" s="6">
-        <v>-0.0268277778</v>
+        <v>-0.0002116071</v>
       </c>
       <c r="F60" s="7">
-        <v>49.2503009741</v>
+        <v>16.5609427908</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2428,19 +2428,19 @@
         <v>70</v>
       </c>
       <c r="B61" s="5">
-        <v>338145</v>
+        <v>551500</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="5">
-        <v>5601185</v>
+        <v>66438822</v>
       </c>
       <c r="E61" s="6">
-        <v>-0.0002116071</v>
+        <v>-0.009708541</v>
       </c>
       <c r="F61" s="7">
-        <v>16.5609427908</v>
+        <v>119.3109700816</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,19 +2448,19 @@
         <v>71</v>
       </c>
       <c r="B62" s="5">
-        <v>551500</v>
+        <v>267667</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" s="5">
-        <v>66438822</v>
+        <v>2484789</v>
       </c>
       <c r="E62" s="6">
-        <v>-0.009708541</v>
+        <v>-0.03532875</v>
       </c>
       <c r="F62" s="7">
-        <v>119.3109700816</v>
+        <v>8.9663649236</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,19 +2468,19 @@
         <v>72</v>
       </c>
       <c r="B63" s="5">
-        <v>267667</v>
+        <v>11295</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="5">
-        <v>2484789</v>
+        <v>2697845</v>
       </c>
       <c r="E63" s="6">
-        <v>-0.03532875</v>
+        <v>0.0007981481</v>
       </c>
       <c r="F63" s="7">
-        <v>8.9663649236</v>
+        <v>239.0438247012</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,19 +2488,19 @@
         <v>73</v>
       </c>
       <c r="B64" s="5">
-        <v>11295</v>
+        <v>69700</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D64" s="5">
-        <v>2697845</v>
+        <v>3807492</v>
       </c>
       <c r="E64" s="6">
-        <v>0.0007981481</v>
+        <v>-0.0290518919</v>
       </c>
       <c r="F64" s="7">
-        <v>239.0438247012</v>
+        <v>53.0846484935</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2508,19 +2508,19 @@
         <v>74</v>
       </c>
       <c r="B65" s="5">
-        <v>69700</v>
+        <v>357022</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" s="5">
-        <v>3807492</v>
+        <v>84548231</v>
       </c>
       <c r="E65" s="6">
-        <v>-0.0290518919</v>
+        <v>-0.0149847659</v>
       </c>
       <c r="F65" s="7">
-        <v>53.0846484935</v>
+        <v>233.3189551344</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2528,19 +2528,19 @@
         <v>75</v>
       </c>
       <c r="B66" s="5">
-        <v>357022</v>
+        <v>238533</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66" s="5">
-        <v>84548231</v>
+        <v>33787914</v>
       </c>
       <c r="E66" s="6">
-        <v>-0.0149847659</v>
+        <v>-0.0085944478</v>
       </c>
       <c r="F66" s="7">
-        <v>233.3189551344</v>
+        <v>140.4417837364</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,19 +2548,19 @@
         <v>76</v>
       </c>
       <c r="B67" s="5">
-        <v>238533</v>
+        <v>131957</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="5">
-        <v>33787914</v>
+        <v>10242908</v>
       </c>
       <c r="E67" s="6">
-        <v>-0.0085944478</v>
+        <v>0.0336879245</v>
       </c>
       <c r="F67" s="7">
-        <v>140.4417837364</v>
+        <v>80.3291981479</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2568,19 +2568,19 @@
         <v>77</v>
       </c>
       <c r="B68" s="5">
-        <v>131957</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="5">
-        <v>10242908</v>
+        <v>117081</v>
       </c>
       <c r="E68" s="6">
-        <v>0.0336879245</v>
+        <v>-0.17081</v>
       </c>
       <c r="F68" s="7">
-        <v>80.3291981479</v>
+        <v>290.6976744186</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2588,19 +2588,19 @@
         <v>78</v>
       </c>
       <c r="B69" s="5">
-        <v>344</v>
+        <v>108889</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="5">
-        <v>117081</v>
+        <v>18124838</v>
       </c>
       <c r="E69" s="6">
-        <v>-0.17081</v>
+        <v>-0.0182493258</v>
       </c>
       <c r="F69" s="7">
-        <v>290.6976744186</v>
+        <v>163.4692209498</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,19 +2608,19 @@
         <v>79</v>
       </c>
       <c r="B70" s="5">
-        <v>108889</v>
+        <v>245857</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D70" s="5">
-        <v>18124838</v>
+        <v>14405465</v>
       </c>
       <c r="E70" s="6">
-        <v>-0.0182493258</v>
+        <v>-0.0363643885</v>
       </c>
       <c r="F70" s="7">
-        <v>163.4692209498</v>
+        <v>56.536930004</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,19 +2628,19 @@
         <v>80</v>
       </c>
       <c r="B71" s="5">
-        <v>245857</v>
+        <v>36125</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="5">
-        <v>14405465</v>
+        <v>2153339</v>
       </c>
       <c r="E71" s="6">
-        <v>-0.0363643885</v>
+        <v>-0.0253995238</v>
       </c>
       <c r="F71" s="7">
-        <v>56.536930004</v>
+        <v>58.1314878893</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,19 +2648,19 @@
         <v>81</v>
       </c>
       <c r="B72" s="5">
-        <v>36125</v>
+        <v>214969</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D72" s="5">
-        <v>2153339</v>
+        <v>826353</v>
       </c>
       <c r="E72" s="6">
-        <v>-0.0253995238</v>
+        <v>-0.03294125</v>
       </c>
       <c r="F72" s="7">
-        <v>58.1314878893</v>
+        <v>3.7214668161</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,19 +2668,19 @@
         <v>82</v>
       </c>
       <c r="B73" s="5">
-        <v>214969</v>
+        <v>27750</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="5">
-        <v>826353</v>
+        <v>11637398</v>
       </c>
       <c r="E73" s="6">
-        <v>-0.03294125</v>
+        <v>-0.0032239655</v>
       </c>
       <c r="F73" s="7">
-        <v>3.7214668161</v>
+        <v>418.018018018</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,19 +2688,19 @@
         <v>83</v>
       </c>
       <c r="B74" s="5">
-        <v>27750</v>
+        <v>112090</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="5">
-        <v>11637398</v>
+        <v>10644851</v>
       </c>
       <c r="E74" s="6">
-        <v>-0.0032239655</v>
+        <v>-0.1088386458</v>
       </c>
       <c r="F74" s="7">
-        <v>418.018018018</v>
+        <v>85.6454634669</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2708,19 +2708,19 @@
         <v>84</v>
       </c>
       <c r="B75" s="5">
-        <v>112090</v>
+        <v>93028</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="5">
-        <v>10644851</v>
+        <v>9686463</v>
       </c>
       <c r="E75" s="6">
-        <v>-0.1088386458</v>
+        <v>0.001395567</v>
       </c>
       <c r="F75" s="7">
-        <v>85.6454634669</v>
+        <v>104.2696822462</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2728,19 +2728,19 @@
         <v>85</v>
       </c>
       <c r="B76" s="5">
-        <v>93028</v>
+        <v>103000</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="5">
-        <v>9686463</v>
+        <v>387558</v>
       </c>
       <c r="E76" s="6">
-        <v>0.001395567</v>
+        <v>0.031105</v>
       </c>
       <c r="F76" s="7">
-        <v>104.2696822462</v>
+        <v>3.8834951456</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2748,19 +2748,19 @@
         <v>86</v>
       </c>
       <c r="B77" s="5">
-        <v>103000</v>
+        <v>3287263</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D77" s="5">
-        <v>387558</v>
+        <v>1438069596</v>
       </c>
       <c r="E77" s="6">
-        <v>0.031105</v>
+        <v>-0.0147259356</v>
       </c>
       <c r="F77" s="7">
-        <v>3.8834951456</v>
+        <v>431.1185323474</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2768,19 +2768,19 @@
         <v>87</v>
       </c>
       <c r="B78" s="5">
-        <v>3287263</v>
+        <v>1904569</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="5">
-        <v>1438069596</v>
+        <v>281190067</v>
       </c>
       <c r="E78" s="6">
-        <v>-0.0147259356</v>
+        <v>-0.0206536007</v>
       </c>
       <c r="F78" s="7">
-        <v>431.1185323474</v>
+        <v>144.6521496465</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,19 +2788,19 @@
         <v>88</v>
       </c>
       <c r="B79" s="5">
-        <v>1904569</v>
+        <v>1648195</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="5">
-        <v>281190067</v>
+        <v>90608707</v>
       </c>
       <c r="E79" s="6">
-        <v>-0.0206536007</v>
+        <v>-0.0226716366</v>
       </c>
       <c r="F79" s="7">
-        <v>144.6521496465</v>
+        <v>53.7557752572</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2808,19 +2808,19 @@
         <v>89</v>
       </c>
       <c r="B80" s="5">
-        <v>1648195</v>
+        <v>438317</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="5">
-        <v>90608707</v>
+        <v>45074049</v>
       </c>
       <c r="E80" s="6">
-        <v>-0.0226716366</v>
+        <v>-0.0128999775</v>
       </c>
       <c r="F80" s="7">
-        <v>53.7557752572</v>
+        <v>101.524695597</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,19 +2828,19 @@
         <v>90</v>
       </c>
       <c r="B81" s="5">
-        <v>438317</v>
+        <v>70273</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D81" s="5">
-        <v>45074049</v>
+        <v>5196630</v>
       </c>
       <c r="E81" s="6">
-        <v>-0.0128999775</v>
+        <v>-0.0189470588</v>
       </c>
       <c r="F81" s="7">
-        <v>101.524695597</v>
+        <v>72.5741038521</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2848,19 +2848,19 @@
         <v>91</v>
       </c>
       <c r="B82" s="5">
-        <v>70273</v>
+        <v>22380</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D82" s="5">
-        <v>5196630</v>
+        <v>9256314</v>
       </c>
       <c r="E82" s="6">
-        <v>-0.0189470588</v>
+        <v>0.0256511579</v>
       </c>
       <c r="F82" s="7">
-        <v>72.5741038521</v>
+        <v>424.4861483467</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2868,19 +2868,19 @@
         <v>92</v>
       </c>
       <c r="B83" s="5">
-        <v>22380</v>
+        <v>301340</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D83" s="5">
-        <v>9256314</v>
+        <v>59499453</v>
       </c>
       <c r="E83" s="6">
-        <v>0.0256511579</v>
+        <v>-0.0101774703</v>
       </c>
       <c r="F83" s="7">
-        <v>424.4861483467</v>
+        <v>195.4602774275</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,19 +2888,19 @@
         <v>93</v>
       </c>
       <c r="B84" s="5">
-        <v>301340</v>
+        <v>322463</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84" s="5">
-        <v>59499453</v>
+        <v>31165654</v>
       </c>
       <c r="E84" s="6">
-        <v>-0.0101774703</v>
+        <v>-0.1051650355</v>
       </c>
       <c r="F84" s="7">
-        <v>195.4602774275</v>
+        <v>87.4518937056</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,19 +2908,19 @@
         <v>94</v>
       </c>
       <c r="B85" s="5">
-        <v>322463</v>
+        <v>10991</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D85" s="5">
-        <v>31165654</v>
+        <v>2839786</v>
       </c>
       <c r="E85" s="6">
-        <v>-0.1051650355</v>
+        <v>-0.0142092857</v>
       </c>
       <c r="F85" s="7">
-        <v>87.4518937056</v>
+        <v>254.753889546</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,19 +2928,19 @@
         <v>95</v>
       </c>
       <c r="B86" s="5">
-        <v>10991</v>
+        <v>377915</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D86" s="5">
-        <v>2839786</v>
+        <v>124370947</v>
       </c>
       <c r="E86" s="6">
-        <v>-0.0142092857</v>
+        <v>0.0042358127</v>
       </c>
       <c r="F86" s="7">
-        <v>254.753889546</v>
+        <v>330.4975986664</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,19 +2948,19 @@
         <v>96</v>
       </c>
       <c r="B87" s="5">
-        <v>377915</v>
+        <v>89342</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="5">
-        <v>124370947</v>
+        <v>11439213</v>
       </c>
       <c r="E87" s="6">
-        <v>0.0042358127</v>
+        <v>-0.0213583036</v>
       </c>
       <c r="F87" s="7">
-        <v>330.4975986664</v>
+        <v>125.360972443</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,19 +2968,19 @@
         <v>97</v>
       </c>
       <c r="B88" s="5">
-        <v>89342</v>
+        <v>2724900</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="5">
-        <v>11439213</v>
+        <v>20330104</v>
       </c>
       <c r="E88" s="6">
-        <v>-0.0213583036</v>
+        <v>-0.0588595833</v>
       </c>
       <c r="F88" s="7">
-        <v>125.360972443</v>
+        <v>7.0461301332</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,19 +2988,19 @@
         <v>98</v>
       </c>
       <c r="B89" s="5">
-        <v>2724900</v>
+        <v>580367</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D89" s="5">
-        <v>20330104</v>
+        <v>55339003</v>
       </c>
       <c r="E89" s="6">
-        <v>-0.0588595833</v>
+        <v>-0.0247963519</v>
       </c>
       <c r="F89" s="7">
-        <v>7.0461301332</v>
+        <v>93.0445735199</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,19 +3008,19 @@
         <v>99</v>
       </c>
       <c r="B90" s="5">
-        <v>580367</v>
+        <v>811</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D90" s="5">
-        <v>55339003</v>
+        <v>132530</v>
       </c>
       <c r="E90" s="6">
-        <v>-0.0247963519</v>
+        <v>-0.3253</v>
       </c>
       <c r="F90" s="7">
-        <v>93.0445735199</v>
+        <v>123.3045622688</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,19 +3028,19 @@
         <v>100</v>
       </c>
       <c r="B91" s="5">
-        <v>811</v>
+        <v>120538</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D91" s="5">
-        <v>132530</v>
+        <v>26418204</v>
       </c>
       <c r="E91" s="6">
-        <v>-0.3253</v>
+        <v>-0.0121917241</v>
       </c>
       <c r="F91" s="7">
-        <v>123.3045622688</v>
+        <v>216.5292272976</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3048,19 +3048,19 @@
         <v>101</v>
       </c>
       <c r="B92" s="5">
-        <v>120538</v>
+        <v>99720</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="5">
-        <v>26418204</v>
+        <v>51748739</v>
       </c>
       <c r="E92" s="6">
-        <v>-0.0121917241</v>
+        <v>-0.0028825388</v>
       </c>
       <c r="F92" s="7">
-        <v>216.5292272976</v>
+        <v>517.448856799</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,19 +3068,19 @@
         <v>102</v>
       </c>
       <c r="B93" s="5">
-        <v>99720</v>
+        <v>10887</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93" s="5">
-        <v>51748739</v>
+        <v>1700031</v>
       </c>
       <c r="E93" s="6">
-        <v>-0.0028825388</v>
+        <v>0.0555383333</v>
       </c>
       <c r="F93" s="7">
-        <v>517.448856799</v>
+        <v>165.334802976</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,19 +3088,19 @@
         <v>103</v>
       </c>
       <c r="B94" s="5">
-        <v>10887</v>
+        <v>17818</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D94" s="5">
-        <v>1700031</v>
+        <v>4838782</v>
       </c>
       <c r="E94" s="6">
-        <v>0.0555383333</v>
+        <v>-0.1801907317</v>
       </c>
       <c r="F94" s="7">
-        <v>165.334802976</v>
+        <v>230.1043888203</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,19 +3108,19 @@
         <v>104</v>
       </c>
       <c r="B95" s="5">
-        <v>17818</v>
+        <v>199951</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="5">
-        <v>4838782</v>
+        <v>7073516</v>
       </c>
       <c r="E95" s="6">
-        <v>-0.1801907317</v>
+        <v>-0.0402229412</v>
       </c>
       <c r="F95" s="7">
-        <v>230.1043888203</v>
+        <v>34.0083320414</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,19 +3128,19 @@
         <v>105</v>
       </c>
       <c r="B96" s="5">
-        <v>199951</v>
+        <v>236800</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="5">
-        <v>7073516</v>
+        <v>7664993</v>
       </c>
       <c r="E96" s="6">
-        <v>-0.0402229412</v>
+        <v>-0.0219990667</v>
       </c>
       <c r="F96" s="7">
-        <v>34.0083320414</v>
+        <v>31.6722972973</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,19 +3148,19 @@
         <v>106</v>
       </c>
       <c r="B97" s="5">
-        <v>236800</v>
+        <v>64589</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D97" s="5">
-        <v>7664993</v>
+        <v>1882396</v>
       </c>
       <c r="E97" s="6">
-        <v>-0.0219990667</v>
+        <v>0.0092652632</v>
       </c>
       <c r="F97" s="7">
-        <v>31.6722972973</v>
+        <v>29.416773754</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,19 +3168,19 @@
         <v>107</v>
       </c>
       <c r="B98" s="5">
-        <v>64589</v>
+        <v>10400</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>1882396</v>
+        <v>5733493</v>
       </c>
       <c r="E98" s="6">
-        <v>0.0092652632</v>
+        <v>-0.0424532727</v>
       </c>
       <c r="F98" s="7">
-        <v>29.416773754</v>
+        <v>528.8461538462</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,19 +3188,19 @@
         <v>108</v>
       </c>
       <c r="B99" s="5">
-        <v>10400</v>
+        <v>30355</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D99" s="5">
-        <v>5733493</v>
+        <v>2311472</v>
       </c>
       <c r="E99" s="6">
-        <v>-0.0424532727</v>
+        <v>-0.0049878261</v>
       </c>
       <c r="F99" s="7">
-        <v>528.8461538462</v>
+        <v>75.7700543568</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,19 +3208,19 @@
         <v>109</v>
       </c>
       <c r="B100" s="5">
-        <v>30355</v>
+        <v>111369</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="5">
-        <v>2311472</v>
+        <v>5493031</v>
       </c>
       <c r="E100" s="6">
-        <v>-0.0049878261</v>
+        <v>-0.0364209434</v>
       </c>
       <c r="F100" s="7">
-        <v>75.7700543568</v>
+        <v>47.5895446668</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,19 +3228,19 @@
         <v>110</v>
       </c>
       <c r="B101" s="5">
-        <v>111369</v>
+        <v>1759540</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="5">
-        <v>5493031</v>
+        <v>7305659</v>
       </c>
       <c r="E101" s="6">
-        <v>-0.0364209434</v>
+        <v>-0.0743616176</v>
       </c>
       <c r="F101" s="7">
-        <v>47.5895446668</v>
+        <v>3.8646464417</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,19 +3248,19 @@
         <v>111</v>
       </c>
       <c r="B102" s="5">
-        <v>1759540</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="5">
-        <v>7305659</v>
+        <v>39598</v>
       </c>
       <c r="E102" s="6">
-        <v>-0.0743616176</v>
+        <v>0.01005</v>
       </c>
       <c r="F102" s="7">
-        <v>3.8646464417</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,19 +3268,19 @@
         <v>112</v>
       </c>
       <c r="B103" s="5">
-        <v>160</v>
+        <v>65300</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="5">
-        <v>39598</v>
+        <v>2854099</v>
       </c>
       <c r="E103" s="6">
-        <v>0.01005</v>
+        <v>-0.0193210714</v>
       </c>
       <c r="F103" s="7">
-        <v>250</v>
+        <v>42.8790199081</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,19 +3288,19 @@
         <v>113</v>
       </c>
       <c r="B104" s="5">
-        <v>65300</v>
+        <v>2586</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="5">
-        <v>2854099</v>
+        <v>665098</v>
       </c>
       <c r="E104" s="6">
-        <v>-0.0193210714</v>
+        <v>0.04986</v>
       </c>
       <c r="F104" s="7">
-        <v>42.8790199081</v>
+        <v>270.6883217324</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,19 +3308,19 @@
         <v>114</v>
       </c>
       <c r="B105" s="5">
-        <v>2586</v>
+        <v>587041</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105" s="5">
-        <v>665098</v>
+        <v>31195932</v>
       </c>
       <c r="E105" s="6">
-        <v>0.04986</v>
+        <v>-0.0539166216</v>
       </c>
       <c r="F105" s="7">
-        <v>270.6883217324</v>
+        <v>50.422372543</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,19 +3328,19 @@
         <v>115</v>
       </c>
       <c r="B106" s="5">
-        <v>587041</v>
+        <v>118484</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="5">
-        <v>31195932</v>
+        <v>21104482</v>
       </c>
       <c r="E106" s="6">
-        <v>-0.0539166216</v>
+        <v>-0.0345334314</v>
       </c>
       <c r="F106" s="7">
-        <v>50.422372543</v>
+        <v>172.1751460113</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3348,19 +3348,19 @@
         <v>116</v>
       </c>
       <c r="B107" s="5">
-        <v>118484</v>
+        <v>329847</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D107" s="5">
-        <v>21104482</v>
+        <v>35126298</v>
       </c>
       <c r="E107" s="6">
-        <v>-0.0345334314</v>
+        <v>-0.0741987156</v>
       </c>
       <c r="F107" s="7">
-        <v>172.1751460113</v>
+        <v>99.13687255</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3368,19 +3368,19 @@
         <v>117</v>
       </c>
       <c r="B108" s="5">
-        <v>329847</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="5">
-        <v>35126298</v>
+        <v>525994</v>
       </c>
       <c r="E108" s="6">
-        <v>-0.0741987156</v>
+        <v>0.1233433333</v>
       </c>
       <c r="F108" s="7">
-        <v>99.13687255</v>
+        <v>2013.4228187919</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,19 +3388,19 @@
         <v>118</v>
       </c>
       <c r="B109" s="5">
-        <v>298</v>
+        <v>1240192</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D109" s="5">
-        <v>525994</v>
+        <v>23769127</v>
       </c>
       <c r="E109" s="6">
-        <v>0.1233433333</v>
+        <v>-0.0517312832</v>
       </c>
       <c r="F109" s="7">
-        <v>2013.4228187919</v>
+        <v>18.2229848282</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3408,19 +3408,19 @@
         <v>119</v>
       </c>
       <c r="B110" s="5">
-        <v>1240192</v>
+        <v>316</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="5">
-        <v>23769127</v>
+        <v>532956</v>
       </c>
       <c r="E110" s="6">
-        <v>-0.0517312832</v>
+        <v>-0.065912</v>
       </c>
       <c r="F110" s="7">
-        <v>18.2229848282</v>
+        <v>1582.2784810127</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3428,19 +3428,19 @@
         <v>120</v>
       </c>
       <c r="B111" s="5">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="5">
-        <v>532956</v>
+        <v>38827</v>
       </c>
       <c r="E111" s="6">
-        <v>-0.065912</v>
+        <v>0.22346</v>
       </c>
       <c r="F111" s="7">
-        <v>1582.2784810127</v>
+        <v>276.2430939227</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,19 +3448,19 @@
         <v>121</v>
       </c>
       <c r="B112" s="5">
-        <v>181</v>
+        <v>1030700</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D112" s="5">
-        <v>38827</v>
+        <v>5022441</v>
       </c>
       <c r="E112" s="6">
-        <v>0.22346</v>
+        <v>-0.0686044681</v>
       </c>
       <c r="F112" s="7">
-        <v>276.2430939227</v>
+        <v>4.5600077617</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,19 +3468,19 @@
         <v>122</v>
       </c>
       <c r="B113" s="5">
-        <v>1030700</v>
+        <v>2040</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="5">
-        <v>5022441</v>
+        <v>1273588</v>
       </c>
       <c r="E113" s="6">
-        <v>-0.0686044681</v>
+        <v>0.0203169231</v>
       </c>
       <c r="F113" s="7">
-        <v>4.5600077617</v>
+        <v>637.2549019608</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,19 +3488,19 @@
         <v>123</v>
       </c>
       <c r="B114" s="5">
-        <v>2040</v>
+        <v>1964375</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D114" s="5">
-        <v>1273588</v>
+        <v>129739759</v>
       </c>
       <c r="E114" s="6">
-        <v>0.0203169231</v>
+        <v>-0.0175667373</v>
       </c>
       <c r="F114" s="7">
-        <v>637.2549019608</v>
+        <v>64.90614063</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,19 +3508,19 @@
         <v>124</v>
       </c>
       <c r="B115" s="5">
-        <v>1964375</v>
+        <v>702</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D115" s="5">
-        <v>129739759</v>
+        <v>112630</v>
       </c>
       <c r="E115" s="6">
-        <v>-0.0175667373</v>
+        <v>-0.1263</v>
       </c>
       <c r="F115" s="7">
-        <v>64.90614063</v>
+        <v>142.4501424501</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3528,19 +3528,19 @@
         <v>125</v>
       </c>
       <c r="B116" s="5">
-        <v>702</v>
+        <v>33851</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="5">
-        <v>112630</v>
+        <v>3067070</v>
       </c>
       <c r="E116" s="6">
-        <v>-0.1263</v>
+        <v>0.1236942857</v>
       </c>
       <c r="F116" s="7">
-        <v>142.4501424501</v>
+        <v>103.3942867271</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3548,19 +3548,19 @@
         <v>126</v>
       </c>
       <c r="B117" s="5">
-        <v>33851</v>
+        <v>2.03</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="5">
-        <v>3067070</v>
+        <v>38956</v>
       </c>
       <c r="E117" s="6">
-        <v>0.1236942857</v>
+        <v>0.0261</v>
       </c>
       <c r="F117" s="7">
-        <v>103.3942867271</v>
+        <v>19704.4334975369</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,19 +3568,19 @@
         <v>127</v>
       </c>
       <c r="B118" s="5">
-        <v>2.03</v>
+        <v>1564116</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118" s="5">
-        <v>38956</v>
+        <v>3431932</v>
       </c>
       <c r="E118" s="6">
-        <v>0.0261</v>
+        <v>-0.0093917647</v>
       </c>
       <c r="F118" s="7">
-        <v>19704.4334975369</v>
+        <v>2.1737518189</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,19 +3588,19 @@
         <v>128</v>
       </c>
       <c r="B119" s="5">
-        <v>1564116</v>
+        <v>13812</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D119" s="5">
-        <v>3431932</v>
+        <v>633552</v>
       </c>
       <c r="E119" s="6">
-        <v>-0.0093917647</v>
+        <v>-0.05592</v>
       </c>
       <c r="F119" s="7">
-        <v>2.1737518189</v>
+        <v>43.4404865334</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3608,19 +3608,19 @@
         <v>129</v>
       </c>
       <c r="B120" s="5">
-        <v>13812</v>
+        <v>446550</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>633552</v>
+        <v>37712505</v>
       </c>
       <c r="E120" s="6">
-        <v>-0.05592</v>
+        <v>-0.0275886921</v>
       </c>
       <c r="F120" s="7">
-        <v>43.4404865334</v>
+        <v>82.1856455044</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3628,19 +3628,19 @@
         <v>130</v>
       </c>
       <c r="B121" s="5">
-        <v>446550</v>
+        <v>799380</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="5">
-        <v>37712505</v>
+        <v>33635160</v>
       </c>
       <c r="E121" s="6">
-        <v>-0.0275886921</v>
+        <v>-0.0192472727</v>
       </c>
       <c r="F121" s="7">
-        <v>82.1856455044</v>
+        <v>41.281993545</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3648,19 +3648,19 @@
         <v>131</v>
       </c>
       <c r="B122" s="5">
-        <v>799380</v>
+        <v>676578</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D122" s="5">
-        <v>33635160</v>
+        <v>54133798</v>
       </c>
       <c r="E122" s="6">
-        <v>-0.0192472727</v>
+        <v>0.0012214391</v>
       </c>
       <c r="F122" s="7">
-        <v>41.281993545</v>
+        <v>80.1090192114</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3668,19 +3668,19 @@
         <v>132</v>
       </c>
       <c r="B123" s="5">
-        <v>676578</v>
+        <v>824292</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D123" s="5">
-        <v>54133798</v>
+        <v>2963095</v>
       </c>
       <c r="E123" s="6">
-        <v>0.0012214391</v>
+        <v>-0.1396519231</v>
       </c>
       <c r="F123" s="7">
-        <v>80.1090192114</v>
+        <v>3.1542220475</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,19 +3688,19 @@
         <v>133</v>
       </c>
       <c r="B124" s="5">
-        <v>824292</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D124" s="5">
-        <v>2963095</v>
+        <v>11875</v>
       </c>
       <c r="E124" s="6">
-        <v>-0.1396519231</v>
+        <v>-0.1875</v>
       </c>
       <c r="F124" s="7">
-        <v>3.1542220475</v>
+        <v>476.1904761905</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3708,19 +3708,19 @@
         <v>134</v>
       </c>
       <c r="B125" s="5">
-        <v>21</v>
+        <v>147181</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D125" s="5">
-        <v>11875</v>
+        <v>29964614</v>
       </c>
       <c r="E125" s="6">
-        <v>-0.1875</v>
+        <v>0.0302713916</v>
       </c>
       <c r="F125" s="7">
-        <v>476.1904761905</v>
+        <v>209.9455772145</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3728,19 +3728,19 @@
         <v>135</v>
       </c>
       <c r="B126" s="5">
-        <v>147181</v>
+        <v>41543</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>29964614</v>
+        <v>18092524</v>
       </c>
       <c r="E126" s="6">
-        <v>0.0302713916</v>
+        <v>-0.0221764972</v>
       </c>
       <c r="F126" s="7">
-        <v>209.9455772145</v>
+        <v>426.0645596129</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3748,19 +3748,19 @@
         <v>136</v>
       </c>
       <c r="B127" s="5">
-        <v>41543</v>
+        <v>267710</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="5">
-        <v>18092524</v>
+        <v>5172836</v>
       </c>
       <c r="E127" s="6">
-        <v>-0.0221764972</v>
+        <v>-0.0142815686</v>
       </c>
       <c r="F127" s="7">
-        <v>426.0645596129</v>
+        <v>19.0504650555</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,19 +3768,19 @@
         <v>137</v>
       </c>
       <c r="B128" s="5">
-        <v>267710</v>
+        <v>130730</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D128" s="5">
-        <v>5172836</v>
+        <v>6823613</v>
       </c>
       <c r="E128" s="6">
-        <v>-0.0142815686</v>
+        <v>-0.0184497015</v>
       </c>
       <c r="F128" s="7">
-        <v>19.0504650555</v>
+        <v>51.2506693184</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3788,19 +3788,19 @@
         <v>138</v>
       </c>
       <c r="B129" s="5">
-        <v>130730</v>
+        <v>1267000</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D129" s="5">
-        <v>6823613</v>
+        <v>26159867</v>
       </c>
       <c r="E129" s="6">
-        <v>-0.0184497015</v>
+        <v>0.0015317939</v>
       </c>
       <c r="F129" s="7">
-        <v>51.2506693184</v>
+        <v>20.6787687451</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,19 +3808,19 @@
         <v>139</v>
       </c>
       <c r="B130" s="5">
-        <v>1267000</v>
+        <v>923768</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="5">
-        <v>26159867</v>
+        <v>227882945</v>
       </c>
       <c r="E130" s="6">
-        <v>0.0015317939</v>
+        <v>-0.04294254</v>
       </c>
       <c r="F130" s="7">
-        <v>20.6787687451</v>
+        <v>236.5312502706</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3828,19 +3828,19 @@
         <v>140</v>
       </c>
       <c r="B131" s="5">
-        <v>923768</v>
+        <v>25713</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="5">
-        <v>227882945</v>
+        <v>1831802</v>
       </c>
       <c r="E131" s="6">
-        <v>-0.04294254</v>
+        <v>-0.0176677778</v>
       </c>
       <c r="F131" s="7">
-        <v>236.5312502706</v>
+        <v>70.003500175</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3848,19 +3848,19 @@
         <v>141</v>
       </c>
       <c r="B132" s="5">
-        <v>25713</v>
+        <v>323802</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="5">
-        <v>1831802</v>
+        <v>5519167</v>
       </c>
       <c r="E132" s="6">
-        <v>-0.0176677778</v>
+        <v>-0.022067963</v>
       </c>
       <c r="F132" s="7">
-        <v>70.003500175</v>
+        <v>16.6768580799</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,19 +3868,19 @@
         <v>142</v>
       </c>
       <c r="B133" s="5">
-        <v>323802</v>
+        <v>309500</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D133" s="5">
-        <v>5519167</v>
+        <v>5049269</v>
       </c>
       <c r="E133" s="6">
-        <v>-0.022067963</v>
+        <v>-0.0976671739</v>
       </c>
       <c r="F133" s="7">
-        <v>16.6768580799</v>
+        <v>14.8626817447</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3888,19 +3888,19 @@
         <v>143</v>
       </c>
       <c r="B134" s="5">
-        <v>309500</v>
+        <v>796095</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="5">
-        <v>5049269</v>
+        <v>247504495</v>
       </c>
       <c r="E134" s="6">
-        <v>-0.0976671739</v>
+        <v>-0.0496373834</v>
       </c>
       <c r="F134" s="7">
-        <v>14.8626817447</v>
+        <v>296.1958057769</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3908,19 +3908,19 @@
         <v>144</v>
       </c>
       <c r="B135" s="5">
-        <v>796095</v>
+        <v>459</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D135" s="5">
-        <v>247504495</v>
+        <v>17727</v>
       </c>
       <c r="E135" s="6">
-        <v>-0.0496373834</v>
+        <v>0.11365</v>
       </c>
       <c r="F135" s="7">
-        <v>296.1958057769</v>
+        <v>43.5729847495</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3928,19 +3928,19 @@
         <v>145</v>
       </c>
       <c r="B136" s="5">
-        <v>459</v>
+        <v>6220</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D136" s="5">
-        <v>17727</v>
+        <v>5409202</v>
       </c>
       <c r="E136" s="6">
-        <v>0.11365</v>
+        <v>-0.0017040741</v>
       </c>
       <c r="F136" s="7">
-        <v>43.5729847495</v>
+        <v>868.1672025723</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3948,19 +3948,19 @@
         <v>146</v>
       </c>
       <c r="B137" s="5">
-        <v>6220</v>
+        <v>75420</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137" s="5">
-        <v>5409202</v>
+        <v>4458759</v>
       </c>
       <c r="E137" s="6">
-        <v>-0.0017040741</v>
+        <v>-0.0133543182</v>
       </c>
       <c r="F137" s="7">
-        <v>868.1672025723</v>
+        <v>58.3399628746</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,19 +3968,19 @@
         <v>147</v>
       </c>
       <c r="B138" s="5">
-        <v>75420</v>
+        <v>462840</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D138" s="5">
-        <v>4458759</v>
+        <v>10389635</v>
       </c>
       <c r="E138" s="6">
-        <v>-0.0133543182</v>
+        <v>-0.1171650538</v>
       </c>
       <c r="F138" s="7">
-        <v>58.3399628746</v>
+        <v>20.0933367903</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,19 +3988,19 @@
         <v>148</v>
       </c>
       <c r="B139" s="5">
-        <v>462840</v>
+        <v>406752</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D139" s="5">
-        <v>10389635</v>
+        <v>6844146</v>
       </c>
       <c r="E139" s="6">
-        <v>-0.1171650538</v>
+        <v>-0.0064920588</v>
       </c>
       <c r="F139" s="7">
-        <v>20.0933367903</v>
+        <v>16.7178034773</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4008,19 +4008,19 @@
         <v>149</v>
       </c>
       <c r="B140" s="5">
-        <v>406752</v>
+        <v>1285216</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="5">
-        <v>6844146</v>
+        <v>33845617</v>
       </c>
       <c r="E140" s="6">
-        <v>-0.0064920588</v>
+        <v>-0.0133418263</v>
       </c>
       <c r="F140" s="7">
-        <v>16.7178034773</v>
+        <v>25.9878495132</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,19 +4028,19 @@
         <v>150</v>
       </c>
       <c r="B141" s="5">
-        <v>1285216</v>
+        <v>299000</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D141" s="5">
-        <v>33845617</v>
+        <v>114891199</v>
       </c>
       <c r="E141" s="6">
-        <v>-0.0133418263</v>
+        <v>0.0061314965</v>
       </c>
       <c r="F141" s="7">
-        <v>25.9878495132</v>
+        <v>386.6220735786</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4048,19 +4048,19 @@
         <v>151</v>
       </c>
       <c r="B142" s="5">
-        <v>299000</v>
+        <v>312685</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D142" s="5">
-        <v>114891199</v>
+        <v>38762844</v>
       </c>
       <c r="E142" s="6">
-        <v>0.0061314965</v>
+        <v>-0.0200748421</v>
       </c>
       <c r="F142" s="7">
-        <v>386.6220735786</v>
+        <v>121.5280553912</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4068,19 +4068,19 @@
         <v>152</v>
       </c>
       <c r="B143" s="5">
-        <v>312685</v>
+        <v>92090</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="5">
-        <v>38762844</v>
+        <v>10430738</v>
       </c>
       <c r="E143" s="6">
-        <v>-0.0200748421</v>
+        <v>-0.0126930097</v>
       </c>
       <c r="F143" s="7">
-        <v>121.5280553912</v>
+        <v>111.8471060919</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4088,19 +4088,19 @@
         <v>153</v>
       </c>
       <c r="B144" s="5">
-        <v>92090</v>
+        <v>11586</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D144" s="5">
-        <v>10430738</v>
+        <v>2979082</v>
       </c>
       <c r="E144" s="6">
-        <v>-0.0126930097</v>
+        <v>-0.1033637037</v>
       </c>
       <c r="F144" s="7">
-        <v>111.8471060919</v>
+        <v>233.0398757121</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,19 +4108,19 @@
         <v>154</v>
       </c>
       <c r="B145" s="5">
-        <v>11586</v>
+        <v>238391</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D145" s="5">
-        <v>2979082</v>
+        <v>19118479</v>
       </c>
       <c r="E145" s="6">
-        <v>-0.1033637037</v>
+        <v>-0.0062357368</v>
       </c>
       <c r="F145" s="7">
-        <v>233.0398757121</v>
+        <v>79.7009954235</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,19 +4128,19 @@
         <v>155</v>
       </c>
       <c r="B146" s="5">
-        <v>238391</v>
+        <v>17098242</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="5">
-        <v>19118479</v>
+        <v>145440500</v>
       </c>
       <c r="E146" s="6">
-        <v>-0.0062357368</v>
+        <v>-0.0079036729</v>
       </c>
       <c r="F146" s="7">
-        <v>79.7009954235</v>
+        <v>8.4394641274</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,19 +4148,19 @@
         <v>156</v>
       </c>
       <c r="B147" s="5">
-        <v>17098242</v>
+        <v>26338</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D147" s="5">
-        <v>145440500</v>
+        <v>13954471</v>
       </c>
       <c r="E147" s="6">
-        <v>-0.0079036729</v>
+        <v>-0.0111935507</v>
       </c>
       <c r="F147" s="7">
-        <v>8.4394641274</v>
+        <v>523.957779634</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,19 +4168,19 @@
         <v>157</v>
       </c>
       <c r="B148" s="5">
-        <v>26338</v>
+        <v>261</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D148" s="5">
-        <v>13954471</v>
+        <v>46758</v>
       </c>
       <c r="E148" s="6">
-        <v>-0.0111935507</v>
+        <v>0.06484</v>
       </c>
       <c r="F148" s="7">
-        <v>523.957779634</v>
+        <v>191.5708812261</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4188,19 +4188,19 @@
         <v>158</v>
       </c>
       <c r="B149" s="5">
-        <v>261</v>
+        <v>616</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="5">
-        <v>46758</v>
+        <v>179285</v>
       </c>
       <c r="E149" s="6">
-        <v>0.06484</v>
+        <v>0.103575</v>
       </c>
       <c r="F149" s="7">
-        <v>191.5708812261</v>
+        <v>324.6753246753</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4208,19 +4208,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="5">
-        <v>616</v>
+        <v>389</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="5">
-        <v>179285</v>
+        <v>101323</v>
       </c>
       <c r="E150" s="6">
-        <v>0.103575</v>
+        <v>-0.01323</v>
       </c>
       <c r="F150" s="7">
-        <v>324.6753246753</v>
+        <v>257.0694087404</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,19 +4228,19 @@
         <v>160</v>
       </c>
       <c r="B151" s="5">
-        <v>389</v>
+        <v>2831</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D151" s="5">
-        <v>101323</v>
+        <v>216663</v>
       </c>
       <c r="E151" s="6">
-        <v>-0.01323</v>
+        <v>-0.083315</v>
       </c>
       <c r="F151" s="7">
-        <v>257.0694087404</v>
+        <v>70.6464146945</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4248,19 +4248,19 @@
         <v>161</v>
       </c>
       <c r="B152" s="5">
-        <v>2831</v>
+        <v>61</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D152" s="5">
-        <v>216663</v>
+        <v>33733</v>
       </c>
       <c r="E152" s="6">
-        <v>-0.083315</v>
+        <v>-0.1244333333</v>
       </c>
       <c r="F152" s="7">
-        <v>70.6464146945</v>
+        <v>491.8032786885</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,19 +4268,19 @@
         <v>162</v>
       </c>
       <c r="B153" s="5">
-        <v>61</v>
+        <v>2149690</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D153" s="5">
-        <v>33733</v>
+        <v>32264292</v>
       </c>
       <c r="E153" s="6">
-        <v>-0.1244333333</v>
+        <v>0.1208639782</v>
       </c>
       <c r="F153" s="7">
-        <v>491.8032786885</v>
+        <v>17.0722290191</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4288,19 +4288,19 @@
         <v>163</v>
       </c>
       <c r="B154" s="5">
-        <v>2149690</v>
+        <v>196722</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D154" s="5">
-        <v>32264292</v>
+        <v>18077573</v>
       </c>
       <c r="E154" s="6">
-        <v>0.1208639782</v>
+        <v>-0.0099202793</v>
       </c>
       <c r="F154" s="7">
-        <v>17.0722290191</v>
+        <v>90.9913481969</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4308,19 +4308,19 @@
         <v>164</v>
       </c>
       <c r="B155" s="5">
-        <v>196722</v>
+        <v>77474</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" s="5">
-        <v>18077573</v>
+        <v>6773201</v>
       </c>
       <c r="E155" s="6">
-        <v>-0.0099202793</v>
+        <v>0.0039410294</v>
       </c>
       <c r="F155" s="7">
-        <v>90.9913481969</v>
+        <v>87.7713813667</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4328,19 +4328,19 @@
         <v>165</v>
       </c>
       <c r="B156" s="5">
-        <v>77474</v>
+        <v>455</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D156" s="5">
-        <v>6773201</v>
+        <v>127951</v>
       </c>
       <c r="E156" s="6">
-        <v>0.0039410294</v>
+        <v>-0.27951</v>
       </c>
       <c r="F156" s="7">
-        <v>87.7713813667</v>
+        <v>219.7802197802</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4348,19 +4348,19 @@
         <v>166</v>
       </c>
       <c r="B157" s="5">
-        <v>455</v>
+        <v>71740</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="5">
-        <v>127951</v>
+        <v>8460512</v>
       </c>
       <c r="E157" s="6">
-        <v>-0.27951</v>
+        <v>0.0275273563</v>
       </c>
       <c r="F157" s="7">
-        <v>219.7802197802</v>
+        <v>121.2712573181</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,19 +4368,19 @@
         <v>167</v>
       </c>
       <c r="B158" s="5">
-        <v>71740</v>
+        <v>697</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D158" s="5">
-        <v>8460512</v>
+        <v>5789090</v>
       </c>
       <c r="E158" s="6">
-        <v>0.0275273563</v>
+        <v>-0.0525618182</v>
       </c>
       <c r="F158" s="7">
-        <v>121.2712573181</v>
+        <v>7890.9612625538</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4388,19 +4388,19 @@
         <v>168</v>
       </c>
       <c r="B159" s="5">
-        <v>697</v>
+        <v>49035</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D159" s="5">
-        <v>5789090</v>
+        <v>5518055</v>
       </c>
       <c r="E159" s="6">
-        <v>-0.0525618182</v>
+        <v>-0.021862037</v>
       </c>
       <c r="F159" s="7">
-        <v>7890.9612625538</v>
+        <v>110.1254206179</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,19 +4408,19 @@
         <v>169</v>
       </c>
       <c r="B160" s="5">
-        <v>49035</v>
+        <v>20273</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="5">
-        <v>5518055</v>
+        <v>2118396</v>
       </c>
       <c r="E160" s="6">
-        <v>-0.021862037</v>
+        <v>-0.00876</v>
       </c>
       <c r="F160" s="7">
-        <v>110.1254206179</v>
+        <v>103.5860504119</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4428,19 +4428,19 @@
         <v>170</v>
       </c>
       <c r="B161" s="5">
-        <v>20273</v>
+        <v>28896</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D161" s="5">
-        <v>2118396</v>
+        <v>800005</v>
       </c>
       <c r="E161" s="6">
-        <v>-0.00876</v>
+        <v>-0.1428642857</v>
       </c>
       <c r="F161" s="7">
-        <v>103.5860504119</v>
+        <v>24.2248062016</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,19 +4448,19 @@
         <v>171</v>
       </c>
       <c r="B162" s="5">
-        <v>28896</v>
+        <v>637657</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D162" s="5">
-        <v>800005</v>
+        <v>18358615</v>
       </c>
       <c r="E162" s="6">
-        <v>-0.1428642857</v>
+        <v>-0.043103125</v>
       </c>
       <c r="F162" s="7">
-        <v>24.2248062016</v>
+        <v>27.6010457033</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4468,19 +4468,19 @@
         <v>172</v>
       </c>
       <c r="B163" s="5">
-        <v>637657</v>
+        <v>1219090</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="5">
-        <v>18358615</v>
+        <v>63212384</v>
       </c>
       <c r="E163" s="6">
-        <v>-0.043103125</v>
+        <v>-0.0431086469</v>
       </c>
       <c r="F163" s="7">
-        <v>27.6010457033</v>
+        <v>49.7092093283</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,19 +4488,19 @@
         <v>173</v>
       </c>
       <c r="B164" s="5">
-        <v>1219090</v>
+        <v>644329</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="5">
-        <v>63212384</v>
+        <v>11483374</v>
       </c>
       <c r="E164" s="6">
-        <v>-0.0431086469</v>
+        <v>-0.0535205505</v>
       </c>
       <c r="F164" s="7">
-        <v>49.7092093283</v>
+        <v>16.9168235482</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4508,19 +4508,19 @@
         <v>174</v>
       </c>
       <c r="B165" s="5">
-        <v>644329</v>
+        <v>505370</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" s="5">
-        <v>11483374</v>
+        <v>47911579</v>
       </c>
       <c r="E165" s="6">
-        <v>-0.0535205505</v>
+        <v>-0.0107928059</v>
       </c>
       <c r="F165" s="7">
-        <v>16.9168235482</v>
+        <v>93.792666759</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,19 +4528,19 @@
         <v>175</v>
       </c>
       <c r="B166" s="5">
-        <v>505370</v>
+        <v>65610</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D166" s="5">
-        <v>47911579</v>
+        <v>22971617</v>
       </c>
       <c r="E166" s="6">
-        <v>-0.0107928059</v>
+        <v>-0.0255186161</v>
       </c>
       <c r="F166" s="7">
-        <v>93.792666759</v>
+        <v>341.411370218</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,19 +4548,19 @@
         <v>176</v>
       </c>
       <c r="B167" s="5">
-        <v>65610</v>
+        <v>1861484</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D167" s="5">
-        <v>22971617</v>
+        <v>50042791</v>
       </c>
       <c r="E167" s="6">
-        <v>-0.0255186161</v>
+        <v>-0.0670104691</v>
       </c>
       <c r="F167" s="7">
-        <v>341.411370218</v>
+        <v>25.1949519845</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,19 +4568,19 @@
         <v>177</v>
       </c>
       <c r="B168" s="5">
-        <v>1861484</v>
+        <v>163820</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D168" s="5">
-        <v>50042791</v>
+        <v>628886</v>
       </c>
       <c r="E168" s="6">
-        <v>-0.0670104691</v>
+        <v>-0.0481433333</v>
       </c>
       <c r="F168" s="7">
-        <v>25.1949519845</v>
+        <v>3.6625564644</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,19 +4588,19 @@
         <v>178</v>
       </c>
       <c r="B169" s="5">
-        <v>163820</v>
+        <v>450295</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D169" s="5">
-        <v>628886</v>
+        <v>10551494</v>
       </c>
       <c r="E169" s="6">
-        <v>-0.0481433333</v>
+        <v>-0.0049041905</v>
       </c>
       <c r="F169" s="7">
-        <v>3.6625564644</v>
+        <v>23.318047058</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4608,19 +4608,19 @@
         <v>179</v>
       </c>
       <c r="B170" s="5">
-        <v>450295</v>
+        <v>41277</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="5">
-        <v>10551494</v>
+        <v>8870561</v>
       </c>
       <c r="E170" s="6">
-        <v>-0.0049041905</v>
+        <v>-0.0080182955</v>
       </c>
       <c r="F170" s="7">
-        <v>23.318047058</v>
+        <v>213.1937883083</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4628,19 +4628,19 @@
         <v>180</v>
       </c>
       <c r="B171" s="5">
-        <v>41277</v>
+        <v>185180</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D171" s="5">
-        <v>8870561</v>
+        <v>23594623</v>
       </c>
       <c r="E171" s="6">
-        <v>-0.0080182955</v>
+        <v>-0.06763</v>
       </c>
       <c r="F171" s="7">
-        <v>213.1937883083</v>
+        <v>119.3433416136</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,19 +4648,19 @@
         <v>181</v>
       </c>
       <c r="B172" s="5">
-        <v>185180</v>
+        <v>964</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D172" s="5">
-        <v>23594623</v>
+        <v>230871</v>
       </c>
       <c r="E172" s="6">
-        <v>-0.06763</v>
+        <v>-0.154355</v>
       </c>
       <c r="F172" s="7">
-        <v>119.3433416136</v>
+        <v>207.468879668</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,19 +4668,19 @@
         <v>182</v>
       </c>
       <c r="B173" s="5">
-        <v>964</v>
+        <v>35980</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D173" s="5">
-        <v>230871</v>
+        <v>23317145</v>
       </c>
       <c r="E173" s="6">
-        <v>-0.154355</v>
+        <v>-0.0050493534</v>
       </c>
       <c r="F173" s="7">
-        <v>207.468879668</v>
+        <v>644.802668149</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4688,19 +4688,19 @@
         <v>183</v>
       </c>
       <c r="B174" s="5">
-        <v>35980</v>
+        <v>143100</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="5">
-        <v>23317145</v>
+        <v>10389799</v>
       </c>
       <c r="E174" s="6">
-        <v>-0.0050493534</v>
+        <v>-0.0389799</v>
       </c>
       <c r="F174" s="7">
-        <v>644.802668149</v>
+        <v>69.8812019567</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4708,19 +4708,19 @@
         <v>184</v>
       </c>
       <c r="B175" s="5">
-        <v>143100</v>
+        <v>947300</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D175" s="5">
-        <v>10389799</v>
+        <v>66617606</v>
       </c>
       <c r="E175" s="6">
-        <v>-0.0389799</v>
+        <v>-0.017062687</v>
       </c>
       <c r="F175" s="7">
-        <v>69.8812019567</v>
+        <v>69.1438826137</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4728,19 +4728,19 @@
         <v>185</v>
       </c>
       <c r="B176" s="5">
-        <v>947300</v>
+        <v>513120</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D176" s="5">
-        <v>66617606</v>
+        <v>71702435</v>
       </c>
       <c r="E176" s="6">
-        <v>-0.017062687</v>
+        <v>-0.0733897455</v>
       </c>
       <c r="F176" s="7">
-        <v>69.1438826137</v>
+        <v>130.18397256</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4748,19 +4748,19 @@
         <v>186</v>
       </c>
       <c r="B177" s="5">
-        <v>513120</v>
+        <v>14950</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="5">
-        <v>71702435</v>
+        <v>1384286</v>
       </c>
       <c r="E177" s="6">
-        <v>-0.0733897455</v>
+        <v>0</v>
       </c>
       <c r="F177" s="7">
-        <v>130.18397256</v>
+        <v>92.5943812709</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5188,7 +5188,7 @@
         <v>208</v>
       </c>
       <c r="B199" s="5">
-        <v>31903096</v>
+        <v>31903172</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -5200,7 +5200,7 @@
         <v>-115.0359572749</v>
       </c>
       <c r="F199" s="7">
-        <v>1.2882762225</v>
+        <v>1.2882731535</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\B4P\b4p-docu-maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -701,46 +701,46 @@
     <t>&gt;=500</t>
   </si>
   <si>
-    <t>&gt;=1'000</t>
-  </si>
-  <si>
-    <t>&gt;=2'000</t>
-  </si>
-  <si>
-    <t>&gt;=5'000</t>
-  </si>
-  <si>
-    <t>&gt;=10'000</t>
-  </si>
-  <si>
-    <t>&gt;=1'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=2'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=5'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=10'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=20'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=50'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=100'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=200'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=500'000'000</t>
-  </si>
-  <si>
-    <t>&gt;=1'000'000'000</t>
+    <t>&gt;=1’000</t>
+  </si>
+  <si>
+    <t>&gt;=2’000</t>
+  </si>
+  <si>
+    <t>&gt;=5’000</t>
+  </si>
+  <si>
+    <t>&gt;=10’000</t>
+  </si>
+  <si>
+    <t>&gt;=1’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=2’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=5’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=10’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=20’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=50’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=100’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=200’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=500’000’000</t>
+  </si>
+  <si>
+    <t>&gt;=1’000’000’000</t>
   </si>
 </sst>
 </file>
@@ -3468,7 +3468,7 @@
         <v>122</v>
       </c>
       <c r="B113" s="5">
-        <v>2040</v>
+        <v>2103</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3480,7 +3480,7 @@
         <v>0.0203169231</v>
       </c>
       <c r="F113" s="7">
-        <v>637.2549019608</v>
+        <v>618.1645268664</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>209</v>
       </c>
       <c r="B200" s="5">
-        <v>30046243</v>
+        <v>30046306</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
@@ -5220,7 +5220,7 @@
         <v>-13.2898029469</v>
       </c>
       <c r="F200" s="7">
-        <v>3.4446902396</v>
+        <v>3.4446830169</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
